--- a/Practices/Practice_10/Table.xlsx
+++ b/Practices/Practice_10/Table.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="8">
   <si>
     <t>Количество цветов (k)</t>
   </si>
@@ -45,6 +45,29 @@
   <si>
     <t>P.S. Таблицу сделал сразу, забыл добавить в проект</t>
   </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Вывод:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Исходя из произведённых замеров можно смело сказать, что реализованный метод практичнее, чем метод из библиотеки sklearn и по времени, и по памяти сжатого изображения</t>
+    </r>
+  </si>
 </sst>
 </file>
 
@@ -53,12 +76,28 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -162,7 +201,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -173,6 +212,36 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -182,34 +251,7 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -492,38 +534,43 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="C3:K16"/>
+  <dimension ref="C3:M16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F16" sqref="F16"/>
+      <selection activeCell="M8" sqref="M8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="2" width="9.140625" style="1"/>
     <col min="3" max="3" width="11" style="1" customWidth="1"/>
-    <col min="4" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="12" width="9.140625" style="1"/>
+    <col min="13" max="13" width="155.28515625" style="1" customWidth="1"/>
+    <col min="14" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="3:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C3" s="15" t="s">
+    <row r="3" spans="3:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C3" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="D3" s="11" t="s">
+      <c r="D3" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="E3" s="11"/>
-      <c r="F3" s="11"/>
-      <c r="G3" s="11"/>
-      <c r="H3" s="11" t="s">
+      <c r="E3" s="4"/>
+      <c r="F3" s="4"/>
+      <c r="G3" s="4"/>
+      <c r="H3" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="I3" s="11"/>
-      <c r="J3" s="11"/>
-      <c r="K3" s="12"/>
-    </row>
-    <row r="4" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="C4" s="16"/>
+      <c r="I3" s="4"/>
+      <c r="J3" s="4"/>
+      <c r="K3" s="11"/>
+      <c r="M3" s="17" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="3:13" x14ac:dyDescent="0.25">
+      <c r="C4" s="6"/>
       <c r="D4" s="8" t="s">
         <v>4</v>
       </c>
@@ -536,23 +583,23 @@
         <v>5</v>
       </c>
       <c r="I4" s="8"/>
-      <c r="J4" s="13" t="s">
+      <c r="J4" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="K4" s="14"/>
-    </row>
-    <row r="5" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="C5" s="16"/>
+      <c r="K4" s="13"/>
+    </row>
+    <row r="5" spans="3:13" x14ac:dyDescent="0.25">
+      <c r="C5" s="6"/>
       <c r="D5" s="8"/>
       <c r="E5" s="8"/>
       <c r="F5" s="8"/>
       <c r="G5" s="8"/>
       <c r="H5" s="8"/>
       <c r="I5" s="8"/>
-      <c r="J5" s="13"/>
-      <c r="K5" s="14"/>
-    </row>
-    <row r="6" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="J5" s="12"/>
+      <c r="K5" s="13"/>
+    </row>
+    <row r="6" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C6" s="2">
         <v>2</v>
       </c>
@@ -573,7 +620,7 @@
       </c>
       <c r="K6" s="10"/>
     </row>
-    <row r="7" spans="3:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C7" s="2">
         <v>3</v>
       </c>
@@ -594,7 +641,7 @@
       </c>
       <c r="K7" s="10"/>
     </row>
-    <row r="8" spans="3:11" x14ac:dyDescent="0.25">
+    <row r="8" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C8" s="2">
         <v>4</v>
       </c>
@@ -615,7 +662,7 @@
       </c>
       <c r="K8" s="10"/>
     </row>
-    <row r="9" spans="3:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C9" s="2">
         <v>8</v>
       </c>
@@ -636,7 +683,7 @@
       </c>
       <c r="K9" s="10"/>
     </row>
-    <row r="10" spans="3:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C10" s="2">
         <v>16</v>
       </c>
@@ -657,7 +704,7 @@
       </c>
       <c r="K10" s="10"/>
     </row>
-    <row r="11" spans="3:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C11" s="2">
         <v>32</v>
       </c>
@@ -678,7 +725,7 @@
       </c>
       <c r="K11" s="10"/>
     </row>
-    <row r="12" spans="3:11" x14ac:dyDescent="0.25">
+    <row r="12" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C12" s="2">
         <v>64</v>
       </c>
@@ -699,7 +746,7 @@
       </c>
       <c r="K12" s="10"/>
     </row>
-    <row r="13" spans="3:11" x14ac:dyDescent="0.25">
+    <row r="13" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C13" s="2">
         <v>128</v>
       </c>
@@ -720,34 +767,61 @@
       </c>
       <c r="K13" s="10"/>
     </row>
-    <row r="14" spans="3:11" x14ac:dyDescent="0.25">
+    <row r="14" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C14" s="3">
         <v>256</v>
       </c>
-      <c r="D14" s="5">
+      <c r="D14" s="15">
         <v>198</v>
       </c>
-      <c r="E14" s="5"/>
-      <c r="F14" s="4">
+      <c r="E14" s="15"/>
+      <c r="F14" s="14">
         <v>454.1</v>
       </c>
-      <c r="G14" s="4"/>
-      <c r="H14" s="5">
+      <c r="G14" s="14"/>
+      <c r="H14" s="15">
         <v>196</v>
       </c>
-      <c r="I14" s="5"/>
-      <c r="J14" s="4">
+      <c r="I14" s="15"/>
+      <c r="J14" s="14">
         <v>231.4</v>
       </c>
-      <c r="K14" s="6"/>
-    </row>
-    <row r="16" spans="3:11" ht="105" x14ac:dyDescent="0.25">
+      <c r="K14" s="16"/>
+    </row>
+    <row r="16" spans="3:13" ht="105" x14ac:dyDescent="0.25">
       <c r="C16" s="1" t="s">
         <v>6</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="43">
+    <mergeCell ref="F14:G14"/>
+    <mergeCell ref="H14:I14"/>
+    <mergeCell ref="J14:K14"/>
+    <mergeCell ref="D14:E14"/>
+    <mergeCell ref="F11:G11"/>
+    <mergeCell ref="H11:I11"/>
+    <mergeCell ref="J11:K11"/>
+    <mergeCell ref="F12:G12"/>
+    <mergeCell ref="H12:I12"/>
+    <mergeCell ref="J12:K12"/>
+    <mergeCell ref="F13:G13"/>
+    <mergeCell ref="H13:I13"/>
+    <mergeCell ref="J13:K13"/>
+    <mergeCell ref="D13:E13"/>
+    <mergeCell ref="F10:G10"/>
+    <mergeCell ref="H10:I10"/>
+    <mergeCell ref="J10:K10"/>
+    <mergeCell ref="D11:E11"/>
+    <mergeCell ref="D12:E12"/>
+    <mergeCell ref="D10:E10"/>
+    <mergeCell ref="H4:I5"/>
+    <mergeCell ref="J4:K5"/>
+    <mergeCell ref="H7:I7"/>
+    <mergeCell ref="J7:K7"/>
+    <mergeCell ref="F8:G8"/>
+    <mergeCell ref="H8:I8"/>
+    <mergeCell ref="J8:K8"/>
     <mergeCell ref="D3:G3"/>
     <mergeCell ref="C3:C5"/>
     <mergeCell ref="F9:G9"/>
@@ -764,33 +838,6 @@
     <mergeCell ref="F7:G7"/>
     <mergeCell ref="D4:E5"/>
     <mergeCell ref="F4:G5"/>
-    <mergeCell ref="H4:I5"/>
-    <mergeCell ref="J4:K5"/>
-    <mergeCell ref="H7:I7"/>
-    <mergeCell ref="J7:K7"/>
-    <mergeCell ref="F8:G8"/>
-    <mergeCell ref="H8:I8"/>
-    <mergeCell ref="J8:K8"/>
-    <mergeCell ref="F10:G10"/>
-    <mergeCell ref="H10:I10"/>
-    <mergeCell ref="J10:K10"/>
-    <mergeCell ref="D11:E11"/>
-    <mergeCell ref="D12:E12"/>
-    <mergeCell ref="D10:E10"/>
-    <mergeCell ref="F14:G14"/>
-    <mergeCell ref="H14:I14"/>
-    <mergeCell ref="J14:K14"/>
-    <mergeCell ref="D14:E14"/>
-    <mergeCell ref="F11:G11"/>
-    <mergeCell ref="H11:I11"/>
-    <mergeCell ref="J11:K11"/>
-    <mergeCell ref="F12:G12"/>
-    <mergeCell ref="H12:I12"/>
-    <mergeCell ref="J12:K12"/>
-    <mergeCell ref="F13:G13"/>
-    <mergeCell ref="H13:I13"/>
-    <mergeCell ref="J13:K13"/>
-    <mergeCell ref="D13:E13"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="300" r:id="rId1"/>
